--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -1,101 +1,400 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>case_name</t>
   </si>
   <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>path</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://www.review.xiaozao.org</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=xiaoming&amp;pwd=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>get</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,24 +402,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -169,7 +760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,84 +998,94 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.review.xiaozao.org" tooltip="https://www.review.xiaozao.org"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>case_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>login</t>
   </si>
   <si>
-    <t>https://www.review.xiaozao.org</t>
+    <t>http://zuowen.api.juhe.cn/zuowen/typeList</t>
+  </si>
+  <si>
+    <t>id=1&amp;key=0c944f30362f75d1566e16ffefe27256</t>
   </si>
   <si>
     <t>get</t>
@@ -42,12 +45,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,76 +59,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,30 +151,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -170,17 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,13 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,139 +218,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,48 +398,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -403,74 +412,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +444,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -500,16 +491,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +542,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -653,9 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1007,7 +1029,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1018,7 +1040,7 @@
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,16 +1054,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1082,7 +1106,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.review.xiaozao.org" tooltip="https://www.review.xiaozao.org"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>case_name</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>https://api.app.aixiangdao.tech/develop/mms/user/login</t>
+  </si>
+  <si>
+    <t>"userName": "15721484677", "password": "484677"</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>college</t>
   </si>
   <si>
     <t>http://zuowen.api.juhe.cn/zuowen/typeList</t>
@@ -50,13 +62,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -65,6 +83,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -119,6 +144,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -160,6 +192,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -167,21 +206,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,20 +222,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,18 +236,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -242,163 +302,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,142 +560,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1026,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
@@ -1040,7 +1062,7 @@
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,60 +1075,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.app.aixiangdao.tech/develop/mms/user/login" tooltip="https://api.app.aixiangdao.tech/develop/mms/user/login"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Interface" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>case_name</t>
   </si>
@@ -25,31 +26,43 @@
     <t>dates</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
+    <t>http://zuowen.api.juhe.cn/zuowen/typeList</t>
+  </si>
+  <si>
+    <t>id=1&amp;key=0c944f30362f75d1566e16ffefe27256</t>
+  </si>
+  <si>
+    <t>注释：</t>
+  </si>
+  <si>
+    <t>login 登陆接口 编写顺序为：链接名字 → url链接 → url参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Interface 登录后需要执行的接口，编写顺序为： url请求方式 → url链接 → url参数</t>
+  </si>
+  <si>
+    <t>Interface 接口可为N个，依次按照顺序填写即可</t>
+  </si>
+  <si>
+    <t>login_excel 可为空， 编写顺序必须与上述一致 ！！！</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>https://api.app.aixiangdao.tech/develop/mms/user/login</t>
   </si>
   <si>
     <t>"userName": "15721484677", "password": "484677"</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>http://zuowen.api.juhe.cn/zuowen/typeList</t>
-  </si>
-  <si>
-    <t>id=1&amp;key=0c944f30362f75d1566e16ffefe27256</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
 </sst>
 </file>
@@ -62,19 +75,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.3"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -83,6 +90,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -236,6 +263,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,6 +293,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,6 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,18 +347,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,30 +401,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,43 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,146 +587,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1048,17 +1085,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="83.25" customWidth="1"/>
+    <col min="3" max="3" width="63.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,77 +1109,195 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" ht="33.75" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" ht="25.5" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" ht="25.5" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" ht="25.5" spans="2:2">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="22" ht="25.5" spans="2:2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" ht="25.5" spans="2:2">
+      <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.app.aixiangdao.tech/develop/mms/user/login" tooltip="https://api.app.aixiangdao.tech/develop/mms/user/login"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B7" r:id="rId2" tooltip="https://www.baidu.com/"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B8" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="50.25" customWidth="1"/>
+    <col min="2" max="2" width="63.5" customWidth="1"/>
+    <col min="3" max="3" width="66.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://api.app.aixiangdao.tech/develop/mms/user/login" tooltip="https://api.app.aixiangdao.tech/develop/mms/user/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>case_name</t>
   </si>
@@ -35,34 +35,7 @@
     <t>id=1&amp;key=0c944f30362f75d1566e16ffefe27256</t>
   </si>
   <si>
-    <t>注释：</t>
-  </si>
-  <si>
-    <t>login 登陆接口 编写顺序为：链接名字 → url链接 → url参数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Interface 登录后需要执行的接口，编写顺序为： url请求方式 → url链接 → url参数</t>
-  </si>
-  <si>
-    <t>Interface 接口可为N个，依次按照顺序填写即可</t>
-  </si>
-  <si>
-    <t>login_excel 可为空， 编写顺序必须与上述一致 ！！！</t>
-  </si>
-  <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>https://api.app.aixiangdao.tech/develop/mms/user/login</t>
-  </si>
-  <si>
-    <t>"userName": "15721484677", "password": "484677"</t>
   </si>
 </sst>
 </file>
@@ -70,12 +43,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,30 +69,106 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,15 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,29 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,75 +199,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +222,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,45 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,26 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,16 +469,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,137 +546,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -727,16 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1085,16 +1034,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="83.25" customWidth="1"/>
+    <col min="2" max="2" width="102.25" customWidth="1"/>
     <col min="3" max="3" width="63.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
@@ -1136,117 +1085,16 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" ht="33.75" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" ht="25.5" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" ht="25.5" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" ht="25.5" spans="2:2">
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" spans="2:2">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" ht="25.5" spans="2:2">
-      <c r="B23" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B6" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B7" r:id="rId2" tooltip="https://www.baidu.com/"/>
     <hyperlink ref="B3" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B8" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1260,7 +1108,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1272,7 +1120,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1283,19 +1131,19 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://api.app.aixiangdao.tech/develop/mms/user/login" tooltip="https://api.app.aixiangdao.tech/develop/mms/user/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>case_name</t>
   </si>
@@ -37,6 +37,12 @@
   <si>
     <t>get</t>
   </si>
+  <si>
+    <t>https://api.app.aixiangdao.tech/getAppNewestVersion</t>
+  </si>
+  <si>
+    <t>"platform":2</t>
+  </si>
 </sst>
 </file>
 
@@ -44,9 +50,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -76,6 +82,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -84,49 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -222,13 +228,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,43 +330,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,109 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +438,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -442,21 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,145 +540,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1042,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1107,8 +1113,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1134,16 +1140,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://api.app.aixiangdao.tech/getAppNewestVersion" tooltip="https://api.app.aixiangdao.tech/getAppNewestVersion"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
-    <t>case_name</t>
+    <t>method</t>
   </si>
   <si>
     <t>path</t>
@@ -26,22 +26,13 @@
     <t>dates</t>
   </si>
   <si>
-    <t>login</t>
+    <t>get</t>
   </si>
   <si>
     <t>http://zuowen.api.juhe.cn/zuowen/typeList</t>
   </si>
   <si>
     <t>id=1&amp;key=0c944f30362f75d1566e16ffefe27256</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://api.app.aixiangdao.tech/getAppNewestVersion</t>
-  </si>
-  <si>
-    <t>"platform":2</t>
   </si>
 </sst>
 </file>
@@ -51,8 +42,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -76,6 +67,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,43 +81,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,32 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +157,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -188,32 +164,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,19 +219,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,163 +351,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,27 +461,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -534,16 +505,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1034,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1114,7 +1105,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A13" sqref="C14 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1126,7 +1117,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1136,20 +1127,14 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://api.app.aixiangdao.tech/getAppNewestVersion" tooltip="https://api.app.aixiangdao.tech/getAppNewestVersion"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="https://api.app.aixiangdao.tech/getAppNewestVersion"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>method</t>
   </si>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -67,66 +67,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,64 +166,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +219,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +303,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,31 +339,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,115 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +428,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,8 +484,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -477,31 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,27 +525,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,13 +1034,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="102.25" customWidth="1"/>
+    <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="63.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
@@ -1102,13 +1102,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="C14 A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="50.25" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
@@ -1116,25 +1116,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B2" r:id="rId2" tooltip="https://api.app.aixiangdao.tech/getAppNewestVersion"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>method</t>
   </si>
@@ -26,13 +26,25 @@
     <t>dates</t>
   </si>
   <si>
-    <t>get</t>
+    <t>token</t>
   </si>
   <si>
-    <t>http://zuowen.api.juhe.cn/zuowen/typeList</t>
+    <t>post</t>
   </si>
   <si>
-    <t>id=1&amp;key=0c944f30362f75d1566e16ffefe27256</t>
+    <t>https://api.aixiangdao.com/user/getUserInfo</t>
+  </si>
+  <si>
+    <t>5e395837-8d56-488b-ba21-2e1359e3e0e5</t>
+  </si>
+  <si>
+    <t>https://api.aixiangdao.com/merchant/voucherPackage/getDiscountCouponExpireList</t>
+  </si>
+  <si>
+    <t>"pageIndex":0,"pageSize":10</t>
+  </si>
+  <si>
+    <t>https://api.aixiangdao.com/book/app/bookOrder/getList</t>
   </si>
 </sst>
 </file>
@@ -189,6 +201,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,13 +217,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +231,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,12 +261,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,37 +315,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,19 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,6 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,55 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,130 +555,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,7 +1046,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1042,7 +1054,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="63.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
@@ -1055,19 +1067,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
@@ -1090,8 +1105,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo" tooltip="https://api.aixiangdao.com/user/getUserInfo"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1105,13 +1120,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="50.25" customWidth="1"/>
-    <col min="2" max="2" width="63.5" customWidth="1"/>
+    <col min="2" max="2" width="82.125" customWidth="1"/>
     <col min="3" max="3" width="66.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1126,32 +1141,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://zuowen.api.juhe.cn/zuowen/typeList" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/merchant/voucherPackage/getDiscountCouponExpireList" tooltip="https://api.aixiangdao.com/merchant/voucherPackage/getDiscountCouponExpireList"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://api.aixiangdao.com/book/app/bookOrder/getList" tooltip="https://api.aixiangdao.com/book/app/bookOrder/getList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>method</t>
   </si>
@@ -23,7 +23,13 @@
     <t>path</t>
   </si>
   <si>
-    <t>dates</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>content-type</t>
+  </si>
+  <si>
+    <t>user-agent</t>
   </si>
   <si>
     <t>token</t>
@@ -35,16 +41,28 @@
     <t>https://api.aixiangdao.com/user/getUserInfo</t>
   </si>
   <si>
-    <t>5e395837-8d56-488b-ba21-2e1359e3e0e5</t>
-  </si>
-  <si>
-    <t>https://api.aixiangdao.com/merchant/voucherPackage/getDiscountCouponExpireList</t>
-  </si>
-  <si>
-    <t>"pageIndex":0,"pageSize":10</t>
-  </si>
-  <si>
-    <t>https://api.aixiangdao.com/book/app/bookOrder/getList</t>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>e751ed59-6485-4387-8dbf-425f0c635505</t>
+  </si>
+  <si>
+    <t>https://api.aixiangdao.com/user/app/coupon/getCount</t>
+  </si>
+  <si>
+    <t>https://api.aixiangdao.com/order/voucherPackage/getCashCouponList</t>
+  </si>
+  <si>
+    <t>{"pageIndex":0,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://api.aixiangdao.com/message/app/message/countUnRead</t>
   </si>
 </sst>
 </file>
@@ -52,12 +70,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,28 +84,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.3"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +114,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -124,14 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -140,15 +145,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,59 +198,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,266 +237,197 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,7 +446,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,8 +469,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,145 +546,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,70 +1033,203 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="55.75" customWidth="1"/>
-    <col min="3" max="3" width="63.25" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="57.875" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo" tooltip="https://api.aixiangdao.com/user/getUserInfo"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="http://zuowen.api.juhe.cn/zuowen/typeList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1117,20 +1240,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="50.25" customWidth="1"/>
-    <col min="2" max="2" width="82.125" customWidth="1"/>
-    <col min="3" max="3" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="104.25" customWidth="1"/>
+    <col min="3" max="3" width="98.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,33 +1264,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/merchant/voucherPackage/getDiscountCouponExpireList" tooltip="https://api.aixiangdao.com/merchant/voucherPackage/getDiscountCouponExpireList"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://api.aixiangdao.com/book/app/bookOrder/getList" tooltip="https://api.aixiangdao.com/book/app/bookOrder/getList"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>method</t>
   </si>
@@ -41,28 +41,31 @@
     <t>https://api.aixiangdao.com/user/getUserInfo</t>
   </si>
   <si>
+    <t>application/json</t>
+  </si>
+  <si>
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
   </si>
   <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>e751ed59-6485-4387-8dbf-425f0c635505</t>
+    <t>51321b4f-c0bb-4474-8981-fbed65a01fb6</t>
+  </si>
+  <si>
+    <t>case_name</t>
   </si>
   <si>
     <t>https://api.aixiangdao.com/user/app/coupon/getCount</t>
   </si>
   <si>
+    <t>"首页:"</t>
+  </si>
+  <si>
     <t>https://api.aixiangdao.com/order/voucherPackage/getCashCouponList</t>
   </si>
   <si>
     <t>{"pageIndex":0,"pageSize":10}</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://api.aixiangdao.com/message/app/message/countUnRead</t>
+    <t>"商家详情页:"</t>
   </si>
 </sst>
 </file>
@@ -70,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,8 +87,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,7 +104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,45 +125,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,63 +195,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,55 +240,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,121 +360,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +431,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,7 +503,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,62 +526,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,141 +549,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1036,200 +1043,200 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="57.875" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="87.5" customWidth="1"/>
     <col min="6" max="6" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo" tooltip="https://api.aixiangdao.com/user/getUserInfo"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1240,20 +1247,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="104.25" customWidth="1"/>
-    <col min="3" max="3" width="98.875" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,35 +1271,40 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/app/coupon/getCount"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://api.aixiangdao.com/order/voucherPackage/getCashCouponList"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>method</t>
   </si>
@@ -35,6 +35,9 @@
     <t>token</t>
   </si>
   <si>
+    <t>case_name</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
@@ -50,13 +53,13 @@
     <t>51321b4f-c0bb-4474-8981-fbed65a01fb6</t>
   </si>
   <si>
-    <t>case_name</t>
+    <t>"登陆"</t>
   </si>
   <si>
     <t>https://api.aixiangdao.com/user/app/coupon/getCount</t>
   </si>
   <si>
-    <t>"首页:"</t>
+    <t>"首页"</t>
   </si>
   <si>
     <t>https://api.aixiangdao.com/order/voucherPackage/getCashCouponList</t>
@@ -65,7 +68,7 @@
     <t>{"pageIndex":0,"pageSize":10}</t>
   </si>
   <si>
-    <t>"商家详情页:"</t>
+    <t>"优惠券列表"</t>
   </si>
 </sst>
 </file>
@@ -95,6 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -138,14 +149,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,7 +540,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -549,7 +552,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,37 +570,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,10 +612,10 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,22 +633,22 @@
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,16 +657,16 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,14 +675,14 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -690,6 +693,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1049,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1052,8 +1058,9 @@
     <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="87.5" customWidth="1"/>
-    <col min="6" max="6" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1075,29 +1082,33 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1236,7 +1247,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo" tooltip="https://api.aixiangdao.com/user/getUserInfo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1250,7 +1261,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1258,7 +1269,7 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="72.5" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1272,38 +1283,38 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/app/coupon/getCount"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://api.aixiangdao.com/order/voucherPackage/getCashCouponList"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://api.aixiangdao.com/order/voucherPackage/getCashCouponList" tooltip="https://api.aixiangdao.com/order/voucherPackage/getCashCouponList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>method</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>"优惠券列表"</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://api.aixiangdao.com/message/app/message/countUnRead</t>
+  </si>
+  <si>
+    <t>"写入"</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -691,6 +700,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1048,8 +1058,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1064,186 +1074,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1258,17 +1268,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="72.5" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1309,6 +1319,17 @@
       </c>
       <c r="D3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>method</t>
   </si>
@@ -38,6 +38,12 @@
     <t>case_name</t>
   </si>
   <si>
+    <t>interface_xls_name</t>
+  </si>
+  <si>
+    <t>interface_sheet_name</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
@@ -54,6 +60,12 @@
   </si>
   <si>
     <t>"登陆"</t>
+  </si>
+  <si>
+    <t>userCase.xlsx</t>
+  </si>
+  <si>
+    <t>Interface</t>
   </si>
   <si>
     <t>https://api.aixiangdao.com/user/app/coupon/getCount</t>
@@ -1056,24 +1068,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="6" width="37.125" customWidth="1"/>
-    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1095,35 +1109,41 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1132,10 +1152,8 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1144,10 +1162,8 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1156,10 +1172,8 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1168,10 +1182,8 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1180,10 +1192,8 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1192,10 +1202,8 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1204,10 +1212,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1216,10 +1222,8 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1228,10 +1232,8 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1240,10 +1242,8 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1252,8 +1252,6 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1271,14 +1269,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="72.5" customWidth="1"/>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="91.5" customWidth="1"/>
+    <col min="3" max="3" width="66.625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1298,38 +1296,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,15 +128,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,15 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,21 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,67 +241,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,25 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,157 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +458,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,21 +487,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,25 +527,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1070,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1326,6 +1326,7 @@
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>24</v>
       </c>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -97,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +128,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -136,49 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +204,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -200,9 +219,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,46 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,31 +264,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,31 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,31 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,79 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,26 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +478,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,31 +533,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +573,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,112 +594,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1326,7 +1326,6 @@
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>24</v>
       </c>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -97,8 +97,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -128,9 +128,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,103 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -264,6 +264,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,138 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,45 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,26 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,16 +496,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +573,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,112 +594,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>method</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>https://api.aixiangdao.com/order/voucherPackage/getCashCouponList</t>
-  </si>
-  <si>
-    <t>{"pageIndex":0,"pageSize":10}</t>
   </si>
   <si>
     <t>"优惠券列表"</t>
@@ -128,19 +125,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -171,31 +184,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,35 +216,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,25 +261,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,78 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +452,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +505,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,75 +552,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +570,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,112 +591,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,7 +1266,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1312,22 +1309,20 @@
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3"/>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -95,9 +95,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>method</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>https://api.aixiangdao.com/order/voucherPackage/getCashCouponList</t>
+  </si>
+  <si>
+    <t>{"pageIndex":0,"pageSize":10}</t>
   </si>
   <si>
     <t>"优惠券列表"</t>
@@ -95,9 +98,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,15 +128,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,19 +156,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,15 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +187,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,26 +210,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -245,6 +241,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,49 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,133 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,41 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,13 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +521,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -558,145 +561,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1309,20 +1312,22 @@
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,14 +128,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,10 +157,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +181,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,17 +205,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,44 +220,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -264,61 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,121 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +458,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,17 +512,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,32 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +573,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,112 +594,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>method</t>
   </si>
@@ -47,7 +47,10 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://api.aixiangdao.com/user/getUserInfo</t>
+    <t>https://m.api.aixiangdao.com/user/app/user/info</t>
+  </si>
+  <si>
+    <t>{"clientType":"miniApp"}</t>
   </si>
   <si>
     <t>application/json</t>
@@ -56,7 +59,7 @@
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
   </si>
   <si>
-    <t>51321b4f-c0bb-4474-8981-fbed65a01fb6</t>
+    <t>03-01512000578944964338-88000327-1570859531</t>
   </si>
   <si>
     <t>"登陆"</t>
@@ -68,28 +71,13 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>https://api.aixiangdao.com/user/app/coupon/getCount</t>
-  </si>
-  <si>
-    <t>"首页"</t>
-  </si>
-  <si>
-    <t>https://api.aixiangdao.com/order/voucherPackage/getCashCouponList</t>
-  </si>
-  <si>
-    <t>{"pageIndex":0,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>"优惠券列表"</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://api.aixiangdao.com/message/app/message/countUnRead</t>
-  </si>
-  <si>
-    <t>"写入"</t>
+    <t>https://m.api.aixiangdao.com/order/app/getOrders</t>
+  </si>
+  <si>
+    <t>{"pageIndex":0,"pageSize":10,"orderType":2,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"商品订单页"</t>
   </si>
 </sst>
 </file>
@@ -97,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -703,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -711,7 +699,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1071,7 +1058,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1080,182 +1067,184 @@
     <col min="2" max="2" width="49.25" customWidth="1"/>
     <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="21.375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/getUserInfo" tooltip="https://api.aixiangdao.com/user/getUserInfo"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1266,18 +1255,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="91.5" customWidth="1"/>
-    <col min="3" max="3" width="66.625" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="3" max="3" width="94.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1299,41 +1288,21 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://api.aixiangdao.com/user/app/coupon/getCount"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://api.aixiangdao.com/order/voucherPackage/getCashCouponList" tooltip="https://api.aixiangdao.com/order/voucherPackage/getCashCouponList"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/order/app/getOrders" tooltip="https://m.api.aixiangdao.com/order/app/getOrders"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -699,7 +699,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1057,8 +1056,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1075,57 +1074,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
@@ -1133,114 +1132,114 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1255,13 +1254,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="91.5" customWidth="1"/>
@@ -1297,8 +1296,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Interface" sheetId="2" r:id="rId2"/>
+    <sheet name="Response" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>method</t>
   </si>
@@ -47,7 +48,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.com/user/app/user/info</t>
+    <t>https://m.api.aixiangdao.tech/P20190825/user/app/user/info</t>
   </si>
   <si>
     <t>{"clientType":"miniApp"}</t>
@@ -59,7 +60,7 @@
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
   </si>
   <si>
-    <t>03-01512000578944964338-88000327-1570859531</t>
+    <t>03-01623036633318875191-71902003-1571644344</t>
   </si>
   <si>
     <t>"登陆"</t>
@@ -71,13 +72,22 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.com/order/app/getOrders</t>
-  </si>
-  <si>
-    <t>{"pageIndex":0,"pageSize":10,"orderType":2,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"商品订单页"</t>
+    <t>https://m.api.aixiangdao.tech/P20190825/basic/app/location/city</t>
+  </si>
+  <si>
+    <t>{"latitude":31.29686,"longitude":121.4576,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"城市"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chech_Response </t>
+  </si>
+  <si>
+    <t>cashCouponTotalCount</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -691,8 +701,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1056,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1074,57 +1087,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
@@ -1132,118 +1145,118 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/P20190825/user/app/user/info" tooltip="https://m.api.aixiangdao.tech/P20190825/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1256,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1283,10 +1296,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -1297,26 +1310,87 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/order/app/getOrders" tooltip="https://m.api.aixiangdao.com/order/app/getOrders"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/P20190825/basic/app/location/city" tooltip="https://m.api.aixiangdao.tech/P20190825/basic/app/location/city"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>method</t>
   </si>
@@ -48,7 +48,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.tech/P20190825/user/app/user/info</t>
+    <t>https://m.api.aixiangdao.tech/develop/user/app/user/info</t>
   </si>
   <si>
     <t>{"clientType":"miniApp"}</t>
@@ -60,7 +60,7 @@
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
   </si>
   <si>
-    <t>03-01623036633318875191-71902003-1571644344</t>
+    <t>03-01657209832668004354-17983337-1571723212</t>
   </si>
   <si>
     <t>"登陆"</t>
@@ -72,15 +72,33 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.tech/P20190825/basic/app/location/city</t>
-  </si>
-  <si>
-    <t>{"latitude":31.29686,"longitude":121.4576,"clientType":"miniApp"}</t>
+    <t>https://m.api.aixiangdao.tech/develop/activity/app/secondKillRule/byCityIdGetStatus</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"clientType":"miniApp"}</t>
   </si>
   <si>
     <t>"城市"</t>
   </si>
   <si>
+    <t>https://m.api.aixiangdao.tech/develop/activity/app/secondKillActivity/secondKillList</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"activeType":"1","pageIndex":"1","pageSize":"5","longitude":121.4576,"latitude":31.29689,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"助力0元秒"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.tech/develop/merchant/app/voucherPackage/getDiscountCouponList</t>
+  </si>
+  <si>
+    <t>{"pageIndex":0,"pageSize":1,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"优惠券"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chech_Response </t>
   </si>
   <si>
@@ -88,6 +106,21 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>aliPay</t>
+  </si>
+  <si>
+    <t>createdTime</t>
+  </si>
+  <si>
+    <t>discountCouponList</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1103,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1256,7 +1289,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/P20190825/user/app/user/info" tooltip="https://m.api.aixiangdao.tech/P20190825/user/app/user/info"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/develop/user/app/user/info" tooltip="https://m.api.aixiangdao.tech/develop/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1269,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1309,13 +1342,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
@@ -1327,7 +1380,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/P20190825/basic/app/location/city" tooltip="https://m.api.aixiangdao.tech/P20190825/basic/app/location/city"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/develop/activity/app/secondKillRule/byCityIdGetStatus" tooltip="https://m.api.aixiangdao.tech/develop/activity/app/secondKillRule/byCityIdGetStatus"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://m.api.aixiangdao.tech/develop/activity/app/secondKillActivity/secondKillList" tooltip="https://m.api.aixiangdao.tech/develop/activity/app/secondKillActivity/secondKillList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1339,20 +1393,22 @@
   <sheetPr/>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1378,12 +1434,27 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
   </si>
   <si>
-    <t>03-01657209832668004354-17983337-1571723212</t>
+    <t>03-01673717797168398478-43322773-1571794790</t>
   </si>
   <si>
     <t>"登陆"</t>
@@ -1102,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1302,7 +1302,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1391,10 +1391,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1404,9 +1404,10 @@
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:24">
+    <row r="1" ht="17" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1433,6 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -1459,7 +1459,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.tech/develop/user/app/user/info</t>
+    <t>https://m.api.aixiangdao.com/user/app/user/info</t>
   </si>
   <si>
     <t>{"clientType":"miniApp"}</t>
@@ -60,7 +60,7 @@
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
   </si>
   <si>
-    <t>03-01673717797168398478-43322773-1571794790</t>
+    <t>03-01512000578944964338-73162666-1571969416</t>
   </si>
   <si>
     <t>"登陆"</t>
@@ -72,7 +72,7 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.tech/develop/activity/app/secondKillRule/byCityIdGetStatus</t>
+    <t>https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus</t>
   </si>
   <si>
     <t>{"cityId":29,"clientType":"miniApp"}</t>
@@ -81,7 +81,7 @@
     <t>"城市"</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.tech/develop/activity/app/secondKillActivity/secondKillList</t>
+    <t>https://m.api.aixiangdao.com/activity/app/secondKillActivity/secondKillList</t>
   </si>
   <si>
     <t>{"cityId":29,"activeType":"1","pageIndex":"1","pageSize":"5","longitude":121.4576,"latitude":31.29689,"clientType":"miniApp"}</t>
@@ -90,7 +90,7 @@
     <t>"助力0元秒"</t>
   </si>
   <si>
-    <t>https://m.api.aixiangdao.tech/develop/merchant/app/voucherPackage/getDiscountCouponList</t>
+    <t>https://m.api.aixiangdao.com/merchant/app/voucherPackage/getDiscountCouponList</t>
   </si>
   <si>
     <t>{"pageIndex":0,"pageSize":1,"clientType":"miniApp"}</t>
@@ -1102,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,7 +1289,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/develop/user/app/user/info" tooltip="https://m.api.aixiangdao.tech/develop/user/app/user/info"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1302,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1380,8 +1380,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/develop/activity/app/secondKillRule/byCityIdGetStatus" tooltip="https://m.api.aixiangdao.tech/develop/activity/app/secondKillRule/byCityIdGetStatus"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://m.api.aixiangdao.tech/develop/activity/app/secondKillActivity/secondKillList" tooltip="https://m.api.aixiangdao.tech/develop/activity/app/secondKillActivity/secondKillList"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus" tooltip="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://m.api.aixiangdao.com/activity/app/secondKillActivity/secondKillList" tooltip="https://m.api.aixiangdao.com/activity/app/secondKillActivity/secondKillList"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://m.api.aixiangdao.com/merchant/app/voucherPackage/getDiscountCouponList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>method</t>
   </si>
@@ -57,10 +57,10 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.2(0x17000222) NetType/WIFI Language/zh_CN</t>
-  </si>
-  <si>
-    <t>03-01512000578944964338-73162666-1571969416</t>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.5(0x17000523) NetType/4G Language/zh_CN</t>
+  </si>
+  <si>
+    <t>03-01512000578944964338-70515731-1571992347</t>
   </si>
   <si>
     <t>"登陆"</t>
@@ -72,55 +72,94 @@
     <t>Interface</t>
   </si>
   <si>
+    <t>https://m.api.aixiangdao.com/basic/app/cityes</t>
+  </si>
+  <si>
+    <t>"好店-城市"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/coupon/plusGift/list</t>
+  </si>
+  <si>
+    <t>"好店-开卡礼"</t>
+  </si>
+  <si>
     <t>https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus</t>
   </si>
   <si>
     <t>{"cityId":29,"clientType":"miniApp"}</t>
   </si>
   <si>
-    <t>"城市"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/activity/app/secondKillActivity/secondKillList</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"activeType":"1","pageIndex":"1","pageSize":"5","longitude":121.4576,"latitude":31.29689,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"助力0元秒"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/voucherPackage/getDiscountCouponList</t>
-  </si>
-  <si>
-    <t>{"pageIndex":0,"pageSize":1,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"优惠券"</t>
+    <t>"好店-0元秒-排行榜-美10榜"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/getNearBusinessRegion</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"latitude":0,"longitude":0,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-城市详细地址"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/BannerCategory/list</t>
+  </si>
+  <si>
+    <t>"好店-菜系分类"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/dish/city/map</t>
+  </si>
+  <si>
+    <t>{"cityDishRecommend":{"cityId":"29"}}</t>
+  </si>
+  <si>
+    <t>"好店-附近商家"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city</t>
+  </si>
+  <si>
+    <t>"好店-精选榜单"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/merchant/getListNews</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"latitude":0,"longitude":0,"pageIndex":0,"pageSize":10,"sortBy":"default","clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-用餐推荐"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail</t>
+  </si>
+  <si>
+    <t>["1666492270569461049","1551889039734685704",7772,7774,"1666494297794034954","1553037136032505867","1666494246254420635","1446903305827295263",7558,6956]</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/basic/app/location/city</t>
+  </si>
+  <si>
+    <t>{"latitude":31.29698,"longitude":121.4577,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-上海市"</t>
+  </si>
+  <si>
+    <t>"好店-上海市地标"</t>
   </si>
   <si>
     <t xml:space="preserve">Chech_Response </t>
   </si>
   <si>
-    <t>cashCouponTotalCount</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>aliPay</t>
-  </si>
-  <si>
-    <t>createdTime</t>
-  </si>
-  <si>
-    <t>discountCouponList</t>
+    <t>merchants</t>
   </si>
 </sst>
 </file>
@@ -734,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,6 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1103,7 +1143,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1120,57 +1160,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
@@ -1178,114 +1218,114 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1300,13 +1340,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="91.5" customWidth="1"/>
@@ -1336,10 +1376,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1347,13 +1387,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1361,28 +1401,138 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus" tooltip="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://m.api.aixiangdao.com/activity/app/secondKillActivity/secondKillList" tooltip="https://m.api.aixiangdao.com/activity/app/secondKillActivity/secondKillList"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://m.api.aixiangdao.com/merchant/app/voucherPackage/getDiscountCouponList"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/basic/app/cityes" tooltip="https://m.api.aixiangdao.com/basic/app/cityes"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list" tooltip="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://m.api.aixiangdao.com/merchant/app/dish/city/map"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://m.api.aixiangdao.com/merchant/app/BannerCategory/list"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://m.api.aixiangdao.com/basic/app/location/city"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://m.api.aixiangdao.com/merchant/app/merchant/getListNews"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1394,23 +1544,25 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="25" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1435,27 +1587,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,141 +16,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>path</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Case_name</t>
+  </si>
+  <si>
+    <t>User-agent</t>
+  </si>
+  <si>
+    <t>Content-type</t>
+  </si>
+  <si>
+    <t>Interface_xls_name</t>
+  </si>
+  <si>
+    <t>Interface_sheet_name</t>
+  </si>
+  <si>
+    <t>"/login"</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.5(0x17000523) NetType/4G Language/zh_CN</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>userCase.xlsx</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/user/app/user/info</t>
+  </si>
+  <si>
+    <t>{"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"登陆"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/basic/app/cityes</t>
+  </si>
+  <si>
+    <t>"好店-城市"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/coupon/plusGift/list</t>
+  </si>
+  <si>
+    <t>"好店-开卡礼"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-0元秒-排行榜-美10榜"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/getNearBusinessRegion</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"latitude":0,"longitude":0,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-城市详细地址"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/BannerCategory/list</t>
+  </si>
+  <si>
+    <t>"好店-菜系分类"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/dish/city/map</t>
+  </si>
+  <si>
+    <t>{"cityDishRecommend":{"cityId":"29"}}</t>
+  </si>
+  <si>
+    <t>"好店-附近商家"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city</t>
+  </si>
+  <si>
+    <t>"好店-精选榜单"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/merchant/getListNews</t>
+  </si>
+  <si>
+    <t>{"cityId":29,"latitude":0,"longitude":0,"pageIndex":0,"pageSize":10,"sortBy":"default","clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-用餐推荐"</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail</t>
+  </si>
+  <si>
+    <t>["1666492270569461049","1551889039734685704",7772,7774,"1666494297794034954","1553037136032505867","1666494246254420635","1446903305827295263",7558,6956]</t>
+  </si>
+  <si>
+    <t>https://m.api.aixiangdao.com/basic/app/location/city</t>
+  </si>
+  <si>
+    <t>{"latitude":31.29698,"longitude":121.4577,"clientType":"miniApp"}</t>
+  </si>
+  <si>
+    <t>"好店-上海市"</t>
+  </si>
+  <si>
+    <t>"好店-上海市地标"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chech_Response </t>
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>content-type</t>
-  </si>
-  <si>
-    <t>user-agent</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
-    <t>interface_xls_name</t>
-  </si>
-  <si>
-    <t>interface_sheet_name</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/user/app/user/info</t>
-  </si>
-  <si>
-    <t>{"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.5(0x17000523) NetType/4G Language/zh_CN</t>
-  </si>
-  <si>
-    <t>03-01512000578944964338-70515731-1571992347</t>
-  </si>
-  <si>
-    <t>"登陆"</t>
-  </si>
-  <si>
-    <t>userCase.xlsx</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/basic/app/cityes</t>
-  </si>
-  <si>
-    <t>"好店-城市"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/coupon/plusGift/list</t>
-  </si>
-  <si>
-    <t>"好店-开卡礼"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-0元秒-排行榜-美10榜"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/getNearBusinessRegion</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"latitude":0,"longitude":0,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-城市详细地址"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/BannerCategory/list</t>
-  </si>
-  <si>
-    <t>"好店-菜系分类"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/dish/city/map</t>
-  </si>
-  <si>
-    <t>{"cityDishRecommend":{"cityId":"29"}}</t>
-  </si>
-  <si>
-    <t>"好店-附近商家"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city</t>
-  </si>
-  <si>
-    <t>"好店-精选榜单"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/merchant/getListNews</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"latitude":0,"longitude":0,"pageIndex":0,"pageSize":10,"sortBy":"default","clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-用餐推荐"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail</t>
-  </si>
-  <si>
-    <t>["1666492270569461049","1551889039734685704",7772,7774,"1666494297794034954","1553037136032505867","1666494246254420635","1446903305827295263",7558,6956]</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/basic/app/location/city</t>
-  </si>
-  <si>
-    <t>{"latitude":31.29698,"longitude":121.4577,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-上海市"</t>
-  </si>
-  <si>
-    <t>"好店-上海市地标"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chech_Response </t>
   </si>
   <si>
     <t>id</t>
@@ -169,8 +169,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,7 +183,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +191,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,15 +655,15 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,24 +773,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,26 +1141,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="63.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1178,43 +1178,31 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1225,7 +1213,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5"/>
@@ -1235,7 +1223,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5"/>
@@ -1245,7 +1233,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5"/>
@@ -1255,7 +1243,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5"/>
@@ -1265,7 +1253,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5"/>
@@ -1275,7 +1263,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
@@ -1285,7 +1273,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
@@ -1295,7 +1283,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
@@ -1305,7 +1293,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5"/>
@@ -1315,7 +1303,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
@@ -1325,11 +1313,231 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1340,199 +1548,406 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="91.5" customWidth="1"/>
     <col min="3" max="3" width="94.625" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.com/basic/app/cityes" tooltip="https://m.api.aixiangdao.com/basic/app/cityes"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list" tooltip="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list"/>
-    <hyperlink ref="B7" r:id="rId3" display="https://m.api.aixiangdao.com/merchant/app/dish/city/map"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://m.api.aixiangdao.com/merchant/app/BannerCategory/list"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city"/>
-    <hyperlink ref="B10" r:id="rId6" display="https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://m.api.aixiangdao.com/basic/app/location/city"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://m.api.aixiangdao.com/merchant/app/merchant/getListNews"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://m.api.aixiangdao.com/basic/app/cityes" tooltip="https://m.api.aixiangdao.com/basic/app/cityes"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list" tooltip="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://m.api.aixiangdao.com/merchant/app/dish/city/map"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://m.api.aixiangdao.com/merchant/app/BannerCategory/list"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail"/>
+    <hyperlink ref="B12" r:id="rId7" display="https://m.api.aixiangdao.com/basic/app/location/city"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://m.api.aixiangdao.com/merchant/app/merchant/getListNews"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1544,60 +1959,64 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:23">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Method</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.5(0x17000523) NetType/4G Language/zh_CN</t>
   </si>
   <si>
-    <t>application/json</t>
+    <t>application/json;charset=UTF-8</t>
   </si>
   <si>
     <t>userCase.xlsx</t>
@@ -147,6 +147,15 @@
     <t>"好店-上海市地标"</t>
   </si>
   <si>
+    <t>https://api.app.aixiangdao.tech/order/submitProductOrder</t>
+  </si>
+  <si>
+    <t>{"merchantId":"1481047986628183526","merchantVersionId":"1672612770802606704","actualMoney":0.01,"productId":"1653435398228304038","productVersionId":"1688324293747605506","productQuantity":1}</t>
+  </si>
+  <si>
+    <t>"获取orderId和orderSn"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chech_Response </t>
   </si>
   <si>
@@ -160,6 +169,12 @@
   </si>
   <si>
     <t>merchants</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>orderId</t>
   </si>
 </sst>
 </file>
@@ -167,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,7 +213,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +326,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -226,104 +339,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,31 +349,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,151 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,21 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,52 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +579,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +658,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,130 +679,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -1143,62 +1152,62 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="47.375" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="63.5" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
     <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1206,113 +1215,113 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
@@ -1349,7 +1358,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1548,10 +1557,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1577,24 +1586,24 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1605,10 +1614,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1619,10 +1628,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1633,10 +1642,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1650,7 +1659,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1664,7 +1673,7 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1678,7 +1687,7 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1692,7 +1701,7 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1706,7 +1715,7 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1720,7 +1729,7 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1734,7 +1743,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1745,10 +1754,18 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -1929,12 +1946,6 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1948,6 +1959,7 @@
     <hyperlink ref="B10" r:id="rId8" display="https://m.api.aixiangdao.com/merchant/app/merchant/getListNews"/>
     <hyperlink ref="B13" r:id="rId9" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
     <hyperlink ref="B2" r:id="rId10" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://api.app.aixiangdao.tech/order/submitProductOrder"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1959,8 +1971,8 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1969,8 +1981,7 @@
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
@@ -1979,45 +1990,29 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:23">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" ht="17" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Method</t>
   </si>
@@ -42,118 +42,10 @@
     <t>Interface_sheet_name</t>
   </si>
   <si>
-    <t>"/login"</t>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.5(0x17000523) NetType/4G Language/zh_CN</t>
-  </si>
-  <si>
-    <t>application/json;charset=UTF-8</t>
-  </si>
-  <si>
     <t>userCase.xlsx</t>
   </si>
   <si>
     <t>Interface</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/user/app/user/info</t>
-  </si>
-  <si>
-    <t>{"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"登陆"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/basic/app/cityes</t>
-  </si>
-  <si>
-    <t>"好店-城市"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/coupon/plusGift/list</t>
-  </si>
-  <si>
-    <t>"好店-开卡礼"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-0元秒-排行榜-美10榜"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/getNearBusinessRegion</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"latitude":0,"longitude":0,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-城市详细地址"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/BannerCategory/list</t>
-  </si>
-  <si>
-    <t>"好店-菜系分类"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/dish/city/map</t>
-  </si>
-  <si>
-    <t>{"cityDishRecommend":{"cityId":"29"}}</t>
-  </si>
-  <si>
-    <t>"好店-附近商家"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city</t>
-  </si>
-  <si>
-    <t>"好店-精选榜单"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/merchant/getListNews</t>
-  </si>
-  <si>
-    <t>{"cityId":29,"latitude":0,"longitude":0,"pageIndex":0,"pageSize":10,"sortBy":"default","clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-用餐推荐"</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail</t>
-  </si>
-  <si>
-    <t>["1666492270569461049","1551889039734685704",7772,7774,"1666494297794034954","1553037136032505867","1666494246254420635","1446903305827295263",7558,6956]</t>
-  </si>
-  <si>
-    <t>https://m.api.aixiangdao.com/basic/app/location/city</t>
-  </si>
-  <si>
-    <t>{"latitude":31.29698,"longitude":121.4577,"clientType":"miniApp"}</t>
-  </si>
-  <si>
-    <t>"好店-上海市"</t>
-  </si>
-  <si>
-    <t>"好店-上海市地标"</t>
-  </si>
-  <si>
-    <t>https://api.app.aixiangdao.tech/order/submitProductOrder</t>
-  </si>
-  <si>
-    <t>{"merchantId":"1481047986628183526","merchantVersionId":"1672612770802606704","actualMoney":0.01,"productId":"1653435398228304038","productVersionId":"1688324293747605506","productQuantity":1}</t>
-  </si>
-  <si>
-    <t>"获取orderId和orderSn"</t>
   </si>
   <si>
     <t xml:space="preserve">Chech_Response </t>
@@ -182,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -213,7 +105,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +127,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -236,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +205,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,89 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -349,19 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,163 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +432,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,11 +459,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,64 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,16 +550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,112 +571,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -793,13 +685,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1045,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1169,159 +1061,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
@@ -1358,7 +1244,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1557,10 +1443,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1586,186 +1472,82 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -1941,26 +1723,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://m.api.aixiangdao.com/basic/app/cityes" tooltip="https://m.api.aixiangdao.com/basic/app/cityes"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list" tooltip="https://m.api.aixiangdao.com/merchant/coupon/plusGift/list"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://m.api.aixiangdao.com/merchant/app/dish/city/map"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://m.api.aixiangdao.com/merchant/app/BannerCategory/list"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://m.api.aixiangdao.com/merchant/app/ranking/listQueryRanking/city"/>
-    <hyperlink ref="B11" r:id="rId6" display="https://m.api.aixiangdao.com/merchant/app/ranking/top/rankingDetail"/>
-    <hyperlink ref="B12" r:id="rId7" display="https://m.api.aixiangdao.com/basic/app/location/city"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://m.api.aixiangdao.com/merchant/app/merchant/getListNews"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://m.api.aixiangdao.com/activity/app/secondKillRule/byCityIdGetStatus"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://m.api.aixiangdao.com/user/app/user/info" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://api.app.aixiangdao.tech/order/submitProductOrder"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1972,7 +1735,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1992,27 +1755,27 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Method</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>Interface_sheet_name</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>https://dev.aisinovision.com:64431/sso/connect/token</t>
+  </si>
+  <si>
+    <t>userName=admin&amp;password=admin&amp;client_id=ultimo&amp;grant_type=password&amp;client_secret=secret</t>
+  </si>
+  <si>
+    <t>"/login"</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/78.0.3904.97 Safari/537.36</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded;charset=utf-8</t>
   </si>
   <si>
     <t>userCase.xlsx</t>
@@ -74,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,13 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -211,14 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +235,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,6 +259,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,66 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,96 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,16 +568,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,112 +589,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,17 +1062,17 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="47.375" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="57.125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="63.5" customWidth="1"/>
+    <col min="5" max="5" width="50.125" customWidth="1"/>
     <col min="6" max="6" width="31.875" customWidth="1"/>
     <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -1087,17 +1105,29 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1432,7 +1462,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="https://m.api.aixiangdao.com/user/app/user/info"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://dev.aisinovision.com:64431/sso/connect/token" tooltip="https://dev.aisinovision.com:64431/sso/connect/token"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1734,7 +1764,7 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -1755,27 +1785,27 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceTest/testFile/userCase.xlsx
+++ b/interfaceTest/testFile/userCase.xlsx
@@ -45,19 +45,19 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://dev.aisinovision.com:64431/sso/connect/token</t>
-  </si>
-  <si>
-    <t>userName=admin&amp;password=admin&amp;client_id=ultimo&amp;grant_type=password&amp;client_secret=secret</t>
+    <t>https://m.api.aixiangdao.tech/P0416/user/app/user/info</t>
+  </si>
+  <si>
+    <t>{"clientType":"miniApp"}</t>
   </si>
   <si>
     <t>"/login"</t>
   </si>
   <si>
-    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/78.0.3904.97 Safari/537.36</t>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded;charset=utf-8</t>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_3 like Mac OS X) AppleWebKit/603.3.8 (KHTML, like Gecko) Mobile/14G60 MicroMessenger/7.0.5(0x17000523) NetType/WIFI Language/zh_CN</t>
+  </si>
+  <si>
+    <t>application/json</t>
   </si>
   <si>
     <t>userCase.xlsx</t>
@@ -122,6 +122,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -222,7 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,20 +249,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,24 +259,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,25 +343,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,30 +409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,30 +421,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,42 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,16 +568,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,112 +589,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1462,7 +1462,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://dev.aisinovision.com:64431/sso/connect/token" tooltip="https://dev.aisinovision.com:64431/sso/connect/token"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://m.api.aixiangdao.tech/P0416/user/app/user/info" tooltip="https://m.api.aixiangdao.tech/P0416/user/app/user/info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
